--- a/flows/CMDY_fund_flow_data.xlsx
+++ b/flows/CMDY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1485"/>
+  <dimension ref="A1:B1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15285,6 +15285,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>-16.053205</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
